--- a/teaching/traditional_assets/database/data/cyprus/cyprus_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/cyprus/cyprus_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,115 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.02765</v>
-      </c>
-      <c r="E2">
-        <v>0.0886</v>
+        <v>-0.104</v>
       </c>
       <c r="G2">
-        <v>0.3414260593340518</v>
+        <v>1.252442360296991</v>
       </c>
       <c r="H2">
-        <v>0.3414260593340518</v>
+        <v>1.252442360296991</v>
       </c>
       <c r="I2">
-        <v>0.5824342846751639</v>
+        <v>0.2999218444704963</v>
       </c>
       <c r="J2">
-        <v>0.5764235628573162</v>
+        <v>0.2995139811146383</v>
       </c>
       <c r="K2">
-        <v>12.774</v>
+        <v>155.985</v>
       </c>
       <c r="L2">
-        <v>0.7246015088774179</v>
+        <v>15.23886283704572</v>
       </c>
       <c r="M2">
-        <v>2.752</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0212311276722136</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2154376076405198</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.542959859899245e-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001565680288085173</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>2.75</v>
-      </c>
-      <c r="T2">
-        <v>0.9992732558139535</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>17.09</v>
+        <v>9.996</v>
       </c>
       <c r="V2">
-        <v>0.1318459200283905</v>
+        <v>0.08357160772510661</v>
       </c>
       <c r="W2">
-        <v>-0.06053097345132744</v>
+        <v>-0.04026311188811188</v>
       </c>
       <c r="X2">
-        <v>0.06575113226934706</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="Y2">
-        <v>-0.1262821057206745</v>
+        <v>-0.09150199211842515</v>
       </c>
       <c r="Z2">
-        <v>0.1312518180523136</v>
+        <v>0.05920185078079814</v>
       </c>
       <c r="AA2">
-        <v>-0.04810996563573883</v>
+        <v>-0.5218194911185791</v>
       </c>
       <c r="AB2">
-        <v>0.06531046474780479</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="AC2">
-        <v>-0.1121464132274137</v>
+        <v>-0.5730583713488924</v>
       </c>
       <c r="AD2">
-        <v>12.374</v>
+        <v>10.7</v>
       </c>
       <c r="AE2">
-        <v>0.54632997730769</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>12.92032997730769</v>
+        <v>10.7</v>
       </c>
       <c r="AG2">
-        <v>-4.16967002269231</v>
+        <v>0.7039999999999988</v>
       </c>
       <c r="AH2">
-        <v>0.09064269274998754</v>
+        <v>0.08211188703860026</v>
       </c>
       <c r="AI2">
-        <v>0.06708363365125061</v>
+        <v>0.03037184217996026</v>
       </c>
       <c r="AJ2">
-        <v>-0.03323735207467743</v>
+        <v>0.005851355619462397</v>
       </c>
       <c r="AK2">
-        <v>-0.02375740518083136</v>
+        <v>0.002056651397588106</v>
       </c>
       <c r="AL2">
-        <v>0.409</v>
+        <v>0.427</v>
       </c>
       <c r="AM2">
-        <v>0.224</v>
+        <v>-0.242</v>
       </c>
       <c r="AN2">
-        <v>1.248133951987089</v>
+        <v>2.196674194210634</v>
       </c>
       <c r="AO2">
-        <v>24.82640586797066</v>
+        <v>7.189695550351288</v>
       </c>
       <c r="AP2">
-        <v>-0.4205840248832268</v>
+        <v>0.1445288441798396</v>
       </c>
       <c r="AQ2">
-        <v>45.33035714285714</v>
+        <v>-12.68595041322314</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Demetra Investment Public Limited (CSE:DEM)</t>
+          <t>Demetra Holdings Plc (CSE:DEM)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,29 +718,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0406</v>
-      </c>
-      <c r="E3">
-        <v>0.0886</v>
-      </c>
       <c r="G3">
-        <v>0.5820512820512821</v>
+        <v>1.673101673101673</v>
       </c>
       <c r="H3">
-        <v>0.5820512820512821</v>
+        <v>1.673101673101673</v>
       </c>
       <c r="I3">
-        <v>0.8393162393162394</v>
+        <v>0.7284427284427285</v>
       </c>
       <c r="J3">
-        <v>0.8262229059829062</v>
+        <v>0.7244802948787769</v>
       </c>
       <c r="K3">
-        <v>9.84</v>
+        <v>157.3</v>
       </c>
       <c r="L3">
-        <v>0.841025641025641</v>
+        <v>20.24453024453025</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -770,73 +758,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.17</v>
+        <v>1.66</v>
       </c>
       <c r="V3">
-        <v>0.02943361188486537</v>
+        <v>0.01655034895314058</v>
       </c>
       <c r="W3">
-        <v>0.06934460887949259</v>
+        <v>1.104634831460674</v>
       </c>
       <c r="X3">
-        <v>0.06822555394163983</v>
+        <v>0.05515366354194147</v>
       </c>
       <c r="Y3">
-        <v>0.001119054937852762</v>
+        <v>1.049481167918733</v>
       </c>
       <c r="Z3">
-        <v>0.1101694915254237</v>
+        <v>0.05154912757911496</v>
       </c>
       <c r="AA3">
-        <v>0.09102455743879474</v>
+        <v>0.0373463271492609</v>
       </c>
       <c r="AB3">
-        <v>0.06697159683738309</v>
+        <v>0.0536957920921542</v>
       </c>
       <c r="AC3">
-        <v>0.02405296060141165</v>
+        <v>-0.0163494649428933</v>
       </c>
       <c r="AD3">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="AG3">
-        <v>8.33</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.09647651006711409</v>
+        <v>0.09639639639639638</v>
       </c>
       <c r="AI3">
-        <v>0.07472384665367121</v>
+        <v>0.03342705404561075</v>
       </c>
       <c r="AJ3">
-        <v>0.07179177798845127</v>
+        <v>0.0826778854947869</v>
       </c>
       <c r="AK3">
-        <v>0.05526438001724938</v>
+        <v>0.02838839341791232</v>
       </c>
       <c r="AL3">
-        <v>0.26</v>
+        <v>0.426</v>
       </c>
       <c r="AM3">
-        <v>0.26</v>
+        <v>0.426</v>
       </c>
       <c r="AN3">
-        <v>1.159274193548387</v>
+        <v>1.854419410745234</v>
       </c>
       <c r="AO3">
-        <v>37.76923076923077</v>
+        <v>13.28638497652582</v>
       </c>
       <c r="AP3">
-        <v>0.8397177419354839</v>
+        <v>1.566724436741768</v>
       </c>
       <c r="AQ3">
-        <v>37.76923076923077</v>
+        <v>13.28638497652582</v>
       </c>
     </row>
     <row r="4">
@@ -856,34 +844,34 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0959</v>
+        <v>-0.104</v>
       </c>
       <c r="G4">
-        <v>-0.1651356993736952</v>
+        <v>-0.046875</v>
       </c>
       <c r="H4">
-        <v>-0.1651356993736952</v>
+        <v>-0.046875</v>
       </c>
       <c r="I4">
-        <v>-0.02636033308174071</v>
+        <v>-0.23671875</v>
       </c>
       <c r="J4">
-        <v>-0.02541136109079804</v>
+        <v>-0.23671875</v>
       </c>
       <c r="K4">
-        <v>0.965</v>
+        <v>-0.276</v>
       </c>
       <c r="L4">
-        <v>0.2014613778705637</v>
+        <v>-0.07187500000000001</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.22</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>2.849740932642487</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -892,79 +880,76 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>2.75</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1.17</v>
+        <v>1.6</v>
       </c>
       <c r="V4">
-        <v>0.09359999999999999</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="W4">
-        <v>0.04054621848739495</v>
+        <v>-0.01254545454545455</v>
       </c>
       <c r="X4">
-        <v>0.06575113226934706</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="Y4">
-        <v>-0.02520491378195211</v>
+        <v>-0.06378433477576781</v>
       </c>
       <c r="Z4">
-        <v>0.2391851130700265</v>
+        <v>0.1843494959193471</v>
       </c>
       <c r="AA4">
-        <v>-0.0060780192757658</v>
+        <v>-0.04363898223715795</v>
       </c>
       <c r="AB4">
-        <v>0.06531046474780479</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="AC4">
-        <v>-0.07138848402357059</v>
+        <v>-0.09487786246747122</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.54632997730769</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.54632997730769</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-0.62367002269231</v>
+        <v>-1.6</v>
       </c>
       <c r="AH4">
-        <v>0.04187614281241977</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.02423143712779673</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.05251369942431434</v>
+        <v>-0.1941747572815534</v>
       </c>
       <c r="AK4">
-        <v>-0.02917572957352242</v>
+        <v>-0.08080808080808083</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.185</v>
+        <v>-0.493</v>
       </c>
       <c r="AN4">
         <v>-0</v>
       </c>
       <c r="AP4">
-        <v>103.9450037820516</v>
+        <v>1.779755283648498</v>
       </c>
       <c r="AQ4">
-        <v>1.297297297297297</v>
+        <v>1.843813387423935</v>
       </c>
     </row>
     <row r="5">
@@ -990,16 +975,16 @@
         <v>-0</v>
       </c>
       <c r="I5">
-        <v>6.26865671641791</v>
+        <v>1.229357798165138</v>
       </c>
       <c r="J5">
-        <v>6.26865671641791</v>
+        <v>1.229357798165138</v>
       </c>
       <c r="K5">
-        <v>-0.6840000000000001</v>
+        <v>-0.707</v>
       </c>
       <c r="L5">
-        <v>10.2089552238806</v>
+        <v>0.6486238532110091</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1023,31 +1008,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>9.06</v>
+        <v>6.61</v>
       </c>
       <c r="V5">
-        <v>1.309248554913295</v>
+        <v>0.8529032258064516</v>
       </c>
       <c r="W5">
-        <v>-0.06053097345132744</v>
+        <v>-0.06798076923076922</v>
       </c>
       <c r="X5">
-        <v>0.06403644759167486</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="Y5">
-        <v>-0.1245674210430023</v>
+        <v>-0.1192196494610825</v>
       </c>
       <c r="Z5">
-        <v>-0.007674684994272624</v>
+        <v>-0.8134328358208956</v>
       </c>
       <c r="AA5">
-        <v>-0.04810996563573883</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.06403644759167486</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="AC5">
-        <v>-0.1121464132274137</v>
+        <v>-1.051238880230313</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1059,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-9.06</v>
+        <v>-6.61</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1068,22 +1053,19 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>4.233644859813083</v>
+        <v>-5.79824561403509</v>
       </c>
       <c r="AK5">
-        <v>-6.761194029850747</v>
+        <v>-2.248299319727891</v>
       </c>
       <c r="AL5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.1</v>
-      </c>
-      <c r="AO5">
-        <v>-4.199999999999999</v>
+        <v>-0.176</v>
       </c>
       <c r="AQ5">
-        <v>-4.199999999999999</v>
+        <v>7.613636363636364</v>
       </c>
     </row>
     <row r="6">
@@ -1109,16 +1091,16 @@
         <v>-0</v>
       </c>
       <c r="I6">
-        <v>2.378378378378379</v>
+        <v>1.200704225352113</v>
       </c>
       <c r="J6">
-        <v>2.378378378378379</v>
+        <v>1.200704225352113</v>
       </c>
       <c r="K6">
-        <v>-0.187</v>
+        <v>-0.332</v>
       </c>
       <c r="L6">
-        <v>2.527027027027027</v>
+        <v>1.169014084507042</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1142,31 +1124,22 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.6</v>
+        <v>0.126</v>
       </c>
       <c r="V6">
-        <v>1.038961038961039</v>
+        <v>0.07325581395348837</v>
       </c>
       <c r="W6">
-        <v>-0.1016304347826087</v>
+        <v>-0.2075</v>
       </c>
       <c r="X6">
-        <v>0.06403644759167486</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="Y6">
-        <v>-0.1656668823742836</v>
-      </c>
-      <c r="Z6">
-        <v>-0.06260575296108291</v>
-      </c>
-      <c r="AA6">
-        <v>-0.1489001692047377</v>
+        <v>-0.2587388802303133</v>
       </c>
       <c r="AB6">
-        <v>0.06403644759167486</v>
-      </c>
-      <c r="AC6">
-        <v>-0.2129366167964126</v>
+        <v>0.05123888023031327</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1178,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>-1.6</v>
+        <v>-0.126</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1187,141 +1160,22 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>26.66666666666664</v>
+        <v>-0.07904642409033878</v>
+      </c>
+      <c r="AK6">
+        <v>-0.1120996441281139</v>
       </c>
       <c r="AL6">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AM6">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AO6">
-        <v>-58.66666666666666</v>
+        <v>-341</v>
       </c>
       <c r="AQ6">
-        <v>-58.66666666666666</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Cyprus</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CLR Investment Fund Public Ltd. (CSE:CLL)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.9140624999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.9140624999999999</v>
-      </c>
-      <c r="K7">
-        <v>2.84</v>
-      </c>
-      <c r="L7">
-        <v>2.21875</v>
-      </c>
-      <c r="M7">
-        <v>0.002</v>
-      </c>
-      <c r="N7">
-        <v>0.002081165452653486</v>
-      </c>
-      <c r="O7">
-        <v>0.0007042253521126761</v>
-      </c>
-      <c r="P7">
-        <v>0.002</v>
-      </c>
-      <c r="Q7">
-        <v>0.002081165452653486</v>
-      </c>
-      <c r="R7">
-        <v>0.0007042253521126761</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>2.09</v>
-      </c>
-      <c r="V7">
-        <v>2.174817898022893</v>
-      </c>
-      <c r="W7">
-        <v>-2.01418439716312</v>
-      </c>
-      <c r="X7">
-        <v>0.09971664873187605</v>
-      </c>
-      <c r="Y7">
-        <v>-2.113901045894996</v>
-      </c>
-      <c r="Z7">
-        <v>-0.7017543859649124</v>
-      </c>
-      <c r="AA7">
-        <v>-0.6414473684210527</v>
-      </c>
-      <c r="AB7">
-        <v>0.07852696750814359</v>
-      </c>
-      <c r="AC7">
-        <v>-0.7199743359291962</v>
-      </c>
-      <c r="AD7">
-        <v>0.874</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0.874</v>
-      </c>
-      <c r="AG7">
-        <v>-1.216</v>
-      </c>
-      <c r="AH7">
-        <v>0.4762942779291553</v>
-      </c>
-      <c r="AI7">
-        <v>0.2103996148290804</v>
-      </c>
-      <c r="AJ7">
-        <v>4.768627450980396</v>
-      </c>
-      <c r="AK7">
-        <v>-0.5891472868217053</v>
-      </c>
-      <c r="AL7">
-        <v>0.046</v>
-      </c>
-      <c r="AM7">
-        <v>0.046</v>
-      </c>
-      <c r="AO7">
-        <v>25.43478260869565</v>
-      </c>
-      <c r="AQ7">
-        <v>25.43478260869565</v>
+        <v>-341</v>
       </c>
     </row>
   </sheetData>
